--- a/doc/excel/党建/[sample_memberReg]校外账号录入样表.xlsx
+++ b/doc/excel/党建/[sample_memberReg]校外账号录入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\廖敏工作文件夹\全部高校\组工一体化平台数据录入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-组工系统录入数据\哈尔滨工业大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0C3AD-B9F5-4BB9-AC85-B8EBF2F02318}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70C2F2-8D26-4A04-A700-AA9CAEEE550A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3180" windowWidth="28800" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,18 +41,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系分党委编码</t>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中共北京**大学地理科学学部委员会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -115,12 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF393939"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -152,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,9 +168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,28 +484,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="33.375" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -532,28 +515,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>11</v>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/doc/excel/党建/[sample_memberReg]校外账号录入样表.xlsx
+++ b/doc/excel/党建/[sample_memberReg]校外账号录入样表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-组工系统录入数据\哈尔滨工业大学\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-组工系统录入数据\大连理工大学\大连理工数据同步\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70C2F2-8D26-4A04-A700-AA9CAEEE550A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D20964-3CF2-430D-B9C5-5D37B5D2576E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3180" windowWidth="28800" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1005" windowWidth="23190" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13811118888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份证号码（如果重复将忽略）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">110105196812272168 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13811112222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -537,8 +537,8 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{0D8A59D8-560A-48B1-9AED-4B39F53537D0}">
-      <formula1>"教职工,本科生,研究生"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{3EB541B5-D622-4137-AAB8-902A31F54D07}">
+      <formula1>"教职工,本科生,硕士研究生,博士研究生"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
